--- a/2018-04-04/二维码项目管理日程表20180403.xlsx
+++ b/2018-04-04/二维码项目管理日程表20180403.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" firstSheet="2" activeTab="4"/>
+    <workbookView windowWidth="28695" windowHeight="12630" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="二维码扫码过闸计划节点" sheetId="15" r:id="rId1"/>
@@ -800,10 +800,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m\ /\ d\ /\ yy"/>
     <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;mm&quot;月&quot;dd&quot;日&quot;aaaa"/>
   </numFmts>
@@ -987,25 +987,44 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
+      <name val="黑体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="黑体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="黑体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="黑体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="黑体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="黑体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1041,8 +1060,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="黑体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="黑体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="黑体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1056,13 +1092,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="黑体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="黑体"/>
       <charset val="0"/>
@@ -1070,22 +1099,16 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="黑体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="黑体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="黑体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1102,29 +1125,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="黑体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="黑体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="黑体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="黑体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1211,127 +1211,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1343,37 +1223,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1391,7 +1247,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1565,17 +1565,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1585,6 +1579,30 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1605,34 +1623,31 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1647,21 +1662,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1670,10 +1670,10 @@
     <xf numFmtId="42" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="18" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="33" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1682,133 +1682,133 @@
     <xf numFmtId="41" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="15" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="15" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="28" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="28" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="37" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5252,7 +5252,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9873f486-3f02-403b-9d4b-6b071fb7c37e}</x14:id>
+          <x14:id>{73ac312c-02ab-4cfd-8972-a527728ebc92}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5282,7 +5282,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9873f486-3f02-403b-9d4b-6b071fb7c37e}">
+          <x14:cfRule type="dataBar" id="{73ac312c-02ab-4cfd-8972-a527728ebc92}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -7704,7 +7704,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{21e91920-9bc9-448f-b6a0-044e9193041f}</x14:id>
+          <x14:id>{ef8319a3-83e3-4862-9257-078a15a45b16}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -7734,7 +7734,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{21e91920-9bc9-448f-b6a0-044e9193041f}">
+          <x14:cfRule type="dataBar" id="{ef8319a3-83e3-4862-9257-078a15a45b16}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -10299,7 +10299,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{acfd5249-a186-4a3d-b6ac-9f79c4c824f5}</x14:id>
+          <x14:id>{6d53e969-3563-49a5-bb76-e1202665518f}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -10329,7 +10329,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{acfd5249-a186-4a3d-b6ac-9f79c4c824f5}">
+          <x14:cfRule type="dataBar" id="{6d53e969-3563-49a5-bb76-e1202665518f}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -12891,7 +12891,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{56d005b2-7753-42a0-82be-9db9a9f4b856}</x14:id>
+          <x14:id>{18ca96d9-92e0-40ef-bba0-8dd1e02a22f3}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -12921,7 +12921,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{56d005b2-7753-42a0-82be-9db9a9f4b856}">
+          <x14:cfRule type="dataBar" id="{18ca96d9-92e0-40ef-bba0-8dd1e02a22f3}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -30362,7 +30362,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6b489d64-f5b8-4315-9171-fabf0bac19de}</x14:id>
+          <x14:id>{4e988992-9317-4342-9c4f-b2c4c46831e7}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -30376,7 +30376,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6d03a15e-b763-4ec1-afa9-280b1a814397}</x14:id>
+          <x14:id>{b61ebfde-1e99-4196-a367-11c81c03b249}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -30390,7 +30390,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5b9a9fa1-3b66-4074-ba3b-f96daefc9882}</x14:id>
+          <x14:id>{dd9384ef-5a41-4e13-8ec0-ff97b158043b}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -30446,14 +30446,14 @@
   <pageSetup paperSize="9" scale="26" orientation="landscape"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="K29:XFD29 A29" formula="1"/>
+    <ignoredError sqref="A29 K29:XFD29" formula="1"/>
   </ignoredErrors>
   <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6b489d64-f5b8-4315-9171-fabf0bac19de}">
+          <x14:cfRule type="dataBar" id="{4e988992-9317-4342-9c4f-b2c4c46831e7}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -30468,7 +30468,7 @@
           <xm:sqref>I56</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6d03a15e-b763-4ec1-afa9-280b1a814397}">
+          <x14:cfRule type="dataBar" id="{b61ebfde-1e99-4196-a367-11c81c03b249}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -30483,7 +30483,7 @@
           <xm:sqref>I60</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5b9a9fa1-3b66-4074-ba3b-f96daefc9882}">
+          <x14:cfRule type="dataBar" id="{dd9384ef-5a41-4e13-8ec0-ff97b158043b}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -33582,7 +33582,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b93ca98e-9b3e-4c50-997d-e867d781297b}</x14:id>
+          <x14:id>{95a13f35-f132-438d-97c0-fd2ffe04dd9c}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -33612,7 +33612,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{b93ca98e-9b3e-4c50-997d-e867d781297b}">
+          <x14:cfRule type="dataBar" id="{95a13f35-f132-438d-97c0-fd2ffe04dd9c}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -36514,7 +36514,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2b9d17e7-7575-4c5c-9c75-339f70ef7b5a}</x14:id>
+          <x14:id>{c92cd424-3d3c-4114-be09-4d1f2465edcf}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -36549,7 +36549,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2b9d17e7-7575-4c5c-9c75-339f70ef7b5a}">
+          <x14:cfRule type="dataBar" id="{c92cd424-3d3c-4114-be09-4d1f2465edcf}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -39624,7 +39624,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ba312e98-05e0-4f69-9ef5-3e6d781f6296}</x14:id>
+          <x14:id>{8e8d4a41-7e18-45f8-8f64-14888e663863}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -39638,7 +39638,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{49f6e97d-ecba-4b51-bec7-c6fee1b6f451}</x14:id>
+          <x14:id>{a768af10-db2c-42a2-adcf-b106a6cb5cb0}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -39668,7 +39668,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{ba312e98-05e0-4f69-9ef5-3e6d781f6296}">
+          <x14:cfRule type="dataBar" id="{8e8d4a41-7e18-45f8-8f64-14888e663863}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -39683,7 +39683,7 @@
           <xm:sqref>I14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{49f6e97d-ecba-4b51-bec7-c6fee1b6f451}">
+          <x14:cfRule type="dataBar" id="{a768af10-db2c-42a2-adcf-b106a6cb5cb0}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -43259,7 +43259,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{20a1dad9-ad5e-4752-a3ad-47e572271323}</x14:id>
+          <x14:id>{5ee7cf62-5bdf-4aa1-b6b0-f042f07e35f6}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -43302,7 +43302,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{20a1dad9-ad5e-4752-a3ad-47e572271323}">
+          <x14:cfRule type="dataBar" id="{5ee7cf62-5bdf-4aa1-b6b0-f042f07e35f6}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -46533,7 +46533,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{e549177c-c8dd-49d1-8abd-4cb81b7ddc0e}</x14:id>
+          <x14:id>{cd9ce86c-0f61-49d3-9077-b5515ec2036f}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -46547,7 +46547,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{70e39821-45ab-4e0d-b8c2-d75548fc8548}</x14:id>
+          <x14:id>{7e988896-6f30-4b7b-b8df-c49219c44abc}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -46577,7 +46577,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{e549177c-c8dd-49d1-8abd-4cb81b7ddc0e}">
+          <x14:cfRule type="dataBar" id="{cd9ce86c-0f61-49d3-9077-b5515ec2036f}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -46592,7 +46592,7 @@
           <xm:sqref>I15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{70e39821-45ab-4e0d-b8c2-d75548fc8548}">
+          <x14:cfRule type="dataBar" id="{7e988896-6f30-4b7b-b8df-c49219c44abc}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -49490,7 +49490,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7628312f-2b6e-4fe1-b9bc-a55e13970d13}</x14:id>
+          <x14:id>{d089237c-3215-4639-a029-42f0ad81ada5}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -49504,7 +49504,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6f199478-a497-467b-b224-27734d7f8c29}</x14:id>
+          <x14:id>{31d4f880-dfba-49b3-a1e6-07fd397020a3}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -49534,7 +49534,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7628312f-2b6e-4fe1-b9bc-a55e13970d13}">
+          <x14:cfRule type="dataBar" id="{d089237c-3215-4639-a029-42f0ad81ada5}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -49549,7 +49549,7 @@
           <xm:sqref>I13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6f199478-a497-467b-b224-27734d7f8c29}">
+          <x14:cfRule type="dataBar" id="{31d4f880-dfba-49b3-a1e6-07fd397020a3}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
